--- a/src/Eligibility.xlsx
+++ b/src/Eligibility.xlsx
@@ -335,7 +335,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
